--- a/Project Outputs for Xenon_flash/ГИДР.123456.001-01.01/Документация/ГИДР.123456.001-01.01 ПЭ3.xlsx
+++ b/Project Outputs for Xenon_flash/ГИДР.123456.001-01.01/Документация/ГИДР.123456.001-01.01 ПЭ3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\AppData\Local\TempReleases\Snapshot\3\Assembly 01\Документация\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\AppData\Local\TempReleases\Snapshot\1\Assembly 01\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{867998E9-5070-4EFA-87A2-13F4061E4470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DD54E97-CC58-4E02-9055-2D2D54C4D551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3257" yWindow="3257" windowWidth="29220" windowHeight="13252" xr2:uid="{DDC44010-91BC-478A-8481-EE02D06F1399}"/>
+    <workbookView xWindow="3257" yWindow="3257" windowWidth="29220" windowHeight="13252" xr2:uid="{94FF7AEF-92EE-4886-AE3F-64C095D3A9F5}"/>
   </bookViews>
   <sheets>
     <sheet name="ГИДР.123456.001-01.01 ПЭ3" sheetId="1" r:id="rId1"/>
@@ -644,7 +644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E398D1DA-C0D9-43D5-900A-5C6CAE6B440F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A337F19E-76E5-4715-8B1A-323989CBE2F1}">
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs for Xenon_flash/ГИДР.123456.001-01.01/Документация/ГИДР.123456.001-01.01 ПЭ3.xlsx
+++ b/Project Outputs for Xenon_flash/ГИДР.123456.001-01.01/Документация/ГИДР.123456.001-01.01 ПЭ3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\AppData\Local\TempReleases\Snapshot\1\Assembly 01\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DD54E97-CC58-4E02-9055-2D2D54C4D551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E445EF97-0196-441C-932C-52E759BCE478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3257" yWindow="3257" windowWidth="29220" windowHeight="13252" xr2:uid="{94FF7AEF-92EE-4886-AE3F-64C095D3A9F5}"/>
+    <workbookView xWindow="3257" yWindow="3257" windowWidth="29220" windowHeight="13252" xr2:uid="{5BA9D54D-7773-428D-9FB0-1F1FF3394D73}"/>
   </bookViews>
   <sheets>
     <sheet name="ГИДР.123456.001-01.01 ПЭ3" sheetId="1" r:id="rId1"/>
@@ -644,7 +644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A337F19E-76E5-4715-8B1A-323989CBE2F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DA857E-A031-4058-91A4-E776F89DCAAE}">
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs for Xenon_flash/ГИДР.123456.001-01.01/Документация/ГИДР.123456.001-01.01 ПЭ3.xlsx
+++ b/Project Outputs for Xenon_flash/ГИДР.123456.001-01.01/Документация/ГИДР.123456.001-01.01 ПЭ3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\AppData\Local\TempReleases\Snapshot\1\Assembly 01\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E445EF97-0196-441C-932C-52E759BCE478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{679975D9-0DA1-4DB8-89C2-D0DDD2273DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3257" yWindow="3257" windowWidth="29220" windowHeight="13252" xr2:uid="{5BA9D54D-7773-428D-9FB0-1F1FF3394D73}"/>
+    <workbookView xWindow="3257" yWindow="3257" windowWidth="29220" windowHeight="13252" xr2:uid="{CF453BB5-2FCD-44BA-A9BC-D2E6D66E0CFA}"/>
   </bookViews>
   <sheets>
     <sheet name="ГИДР.123456.001-01.01 ПЭ3" sheetId="1" r:id="rId1"/>
@@ -644,7 +644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DA857E-A031-4058-91A4-E776F89DCAAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915C6B10-6E07-45A9-9613-ECD906294136}">
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs for Xenon_flash/ГИДР.123456.001-01.01/Документация/ГИДР.123456.001-01.01 ПЭ3.xlsx
+++ b/Project Outputs for Xenon_flash/ГИДР.123456.001-01.01/Документация/ГИДР.123456.001-01.01 ПЭ3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\AppData\Local\TempReleases\Snapshot\1\Assembly 01\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{679975D9-0DA1-4DB8-89C2-D0DDD2273DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{148B95CB-D975-48C3-9487-06BA66B3E4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3257" yWindow="3257" windowWidth="29220" windowHeight="13252" xr2:uid="{CF453BB5-2FCD-44BA-A9BC-D2E6D66E0CFA}"/>
+    <workbookView xWindow="3257" yWindow="3257" windowWidth="29220" windowHeight="13252" xr2:uid="{5E660814-8C13-40D3-BABD-3091EC8F14BC}"/>
   </bookViews>
   <sheets>
     <sheet name="ГИДР.123456.001-01.01 ПЭ3" sheetId="1" r:id="rId1"/>
@@ -644,7 +644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915C6B10-6E07-45A9-9613-ECD906294136}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066419CB-3277-4424-80C4-2CFC4373B3EE}">
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
